--- a/test/Assembly.Kernel.Acceptance.Test/test-data/definitions/Benchmarktest_traject INNW 22-1.xlsx
+++ b/test/Assembly.Kernel.Acceptance.Test/test-data/definitions/Benchmarktest_traject INNW 22-1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Projects\11209000\11209269\B. Measurements and calculations\007 Assemblagekernel\Testcases\Aangepast\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Checkouts\AssemblageKernel\test\Assembly.Kernel.Acceptance.Test\test-data\definitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AE8177-BC8F-442D-8057-897661D50314}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92EF07D-9003-4DD3-9E35-53E03BE8F07B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" firstSheet="1" activeTab="9" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
   </bookViews>
@@ -2333,7 +2333,7 @@
   <dimension ref="B2:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2446,11 +2446,11 @@
         <v>0</v>
       </c>
       <c r="H7" s="1">
-        <f>IF(ISNUMBER(E7),1-E7,1-C7)</f>
+        <f t="shared" ref="H7:H13" si="0">IF(ISNUMBER(E7),1-E7,1-C7)</f>
         <v>0.99976052601105569</v>
       </c>
       <c r="I7" s="1">
-        <f>IF(ISNUMBER(E7),1-E7,1-D7)</f>
+        <f t="shared" ref="I7:I13" si="1">IF(ISNUMBER(E7),1-E7,1-D7)</f>
         <v>0.99976052601105569</v>
       </c>
       <c r="J7" s="1">
@@ -2462,7 +2462,7 @@
         <v>2.3947398894430538E-4</v>
       </c>
       <c r="L7" s="1">
-        <f>F7*J7</f>
+        <f t="shared" ref="L7:L13" si="2">F7*J7</f>
         <v>0</v>
       </c>
       <c r="M7" s="1">
@@ -2470,7 +2470,7 @@
         <v>0.99976052601105569</v>
       </c>
       <c r="N7" s="1">
-        <f>F7*K7</f>
+        <f t="shared" ref="N7:N13" si="3">F7*K7</f>
         <v>0</v>
       </c>
       <c r="O7" s="1">
@@ -2495,35 +2495,35 @@
         <v>0</v>
       </c>
       <c r="H8" s="1">
-        <f>IF(ISNUMBER(E8),1-E8,1-C8)</f>
+        <f t="shared" si="0"/>
         <v>0.99606490110803081</v>
       </c>
       <c r="I8" s="1">
-        <f>IF(ISNUMBER(E8),1-E8,1-D8)</f>
+        <f t="shared" si="1"/>
         <v>0.99606490110803081</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" ref="J8:K13" si="0">1-H8</f>
+        <f t="shared" ref="J8:K13" si="4">1-H8</f>
         <v>3.9350988919691909E-3</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3.9350988919691909E-3</v>
       </c>
       <c r="L8" s="1">
-        <f>F8*J8</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M8" s="1">
-        <f t="shared" ref="M8:M13" si="1">1-(1-F8)*J8</f>
+        <f t="shared" ref="M8:M13" si="5">1-(1-F8)*J8</f>
         <v>0.99606490110803081</v>
       </c>
       <c r="N8" s="1">
-        <f>F8*K8</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O8" s="1">
-        <f t="shared" ref="O8:O13" si="2">1-(1-F8)*K8</f>
+        <f t="shared" ref="O8:O13" si="6">1-(1-F8)*K8</f>
         <v>0.99606490110803081</v>
       </c>
     </row>
@@ -2541,39 +2541,39 @@
       </c>
       <c r="E9" s="49"/>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1">
-        <f>IF(ISNUMBER(E9),1-E9,1-C9)</f>
+        <f t="shared" si="0"/>
         <v>0.99999565217391306</v>
       </c>
       <c r="I9" s="1">
-        <f>IF(ISNUMBER(E9),1-E9,1-D9)</f>
+        <f t="shared" si="1"/>
         <v>0.99999565217391306</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4.3478260869367347E-6</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4.3478260869367347E-6</v>
       </c>
       <c r="L9" s="1">
-        <f>F9*J9</f>
-        <v>4.3478260869367347E-6</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="M9" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0.99999565217391306</v>
       </c>
       <c r="N9" s="1">
-        <f>F9*K9</f>
-        <v>4.3478260869367347E-6</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0.99999565217391306</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
@@ -2593,35 +2593,35 @@
         <v>0</v>
       </c>
       <c r="H10" s="1">
-        <f>IF(ISNUMBER(E10),1-E10,1-C10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I10" s="1">
-        <f>IF(ISNUMBER(E10),1-E10,1-D10)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L10" s="1">
-        <f>F10*J10</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N10" s="1">
-        <f>F10*K10</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -2642,35 +2642,35 @@
         <v>0</v>
       </c>
       <c r="H11" s="1">
-        <f>IF(ISNUMBER(E11),1-E11,1-C11)</f>
+        <f t="shared" si="0"/>
         <v>0.99993048203219626</v>
       </c>
       <c r="I11" s="1">
-        <f>IF(ISNUMBER(E11),1-E11,1-D11)</f>
-        <v>0.99993048203219626</v>
-      </c>
-      <c r="J11" s="1">
-        <f t="shared" si="0"/>
-        <v>6.9517967803744973E-5</v>
-      </c>
-      <c r="K11" s="1">
-        <f t="shared" si="0"/>
-        <v>6.9517967803744973E-5</v>
-      </c>
-      <c r="L11" s="1">
-        <f>F11*J11</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="1">
         <f t="shared" si="1"/>
         <v>0.99993048203219626</v>
       </c>
+      <c r="J11" s="1">
+        <f t="shared" si="4"/>
+        <v>6.9517967803744973E-5</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="4"/>
+        <v>6.9517967803744973E-5</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="5"/>
+        <v>0.99993048203219626</v>
+      </c>
       <c r="N11" s="1">
-        <f>F11*K11</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.99993048203219626</v>
       </c>
     </row>
@@ -2691,35 +2691,35 @@
         <v>0</v>
       </c>
       <c r="H12" s="1">
-        <f>IF(ISNUMBER(E12),1-E12,1-C12)</f>
+        <f t="shared" si="0"/>
         <v>0.99995120000000004</v>
       </c>
       <c r="I12" s="1">
-        <f>IF(ISNUMBER(E12),1-E12,1-D12)</f>
-        <v>0.99995120000000004</v>
-      </c>
-      <c r="J12" s="1">
-        <f t="shared" si="0"/>
-        <v>4.8799999999959986E-5</v>
-      </c>
-      <c r="K12" s="1">
-        <f t="shared" si="0"/>
-        <v>4.8799999999959986E-5</v>
-      </c>
-      <c r="L12" s="1">
-        <f>F12*J12</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="1">
         <f t="shared" si="1"/>
         <v>0.99995120000000004</v>
       </c>
+      <c r="J12" s="1">
+        <f t="shared" si="4"/>
+        <v>4.8799999999959986E-5</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="4"/>
+        <v>4.8799999999959986E-5</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="5"/>
+        <v>0.99995120000000004</v>
+      </c>
       <c r="N12" s="1">
-        <f>F12*K12</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.99995120000000004</v>
       </c>
     </row>
@@ -2740,35 +2740,35 @@
         <v>0</v>
       </c>
       <c r="H13" s="1">
-        <f>IF(ISNUMBER(E13),1-E13,1-C13)</f>
+        <f t="shared" si="0"/>
         <v>0.99999167</v>
       </c>
       <c r="I13" s="1">
-        <f>IF(ISNUMBER(E13),1-E13,1-D13)</f>
-        <v>0.99999167</v>
-      </c>
-      <c r="J13" s="1">
-        <f t="shared" si="0"/>
-        <v>8.3300000000008367E-6</v>
-      </c>
-      <c r="K13" s="1">
-        <f t="shared" si="0"/>
-        <v>8.3300000000008367E-6</v>
-      </c>
-      <c r="L13" s="1">
-        <f>F13*J13</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="1">
         <f t="shared" si="1"/>
         <v>0.99999167</v>
       </c>
+      <c r="J13" s="1">
+        <f t="shared" si="4"/>
+        <v>8.3300000000008367E-6</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="4"/>
+        <v>8.3300000000008367E-6</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="5"/>
+        <v>0.99999167</v>
+      </c>
       <c r="N13" s="1">
-        <f>F13*K13</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.99999167</v>
       </c>
     </row>
@@ -2788,11 +2788,11 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1">
         <f>MAX(L7:L13)</f>
-        <v>4.3478260869367347E-6</v>
+        <v>0</v>
       </c>
       <c r="N15" s="1">
         <f>MAX(N7:N13)</f>
-        <v>4.3478260869367347E-6</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/test/Assembly.Kernel.Acceptance.Test/test-data/definitions/Benchmarktest_traject INNW 22-1.xlsx
+++ b/test/Assembly.Kernel.Acceptance.Test/test-data/definitions/Benchmarktest_traject INNW 22-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Checkouts\AssemblageKernel\test\Assembly.Kernel.Acceptance.Test\test-data\definitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92EF07D-9003-4DD3-9E35-53E03BE8F07B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B764692D-3813-4557-B67F-AC1D891A8C61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" firstSheet="1" activeTab="9" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="653" firstSheet="1" activeTab="4" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatiepagina" sheetId="1" r:id="rId1"/>
@@ -984,7 +984,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="108">
+  <dxfs count="110">
     <dxf>
       <fill>
         <patternFill>
@@ -1533,6 +1533,20 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2332,8 +2346,8 @@
   </sheetPr>
   <dimension ref="B2:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4170,7 +4184,7 @@
       </c>
       <c r="H31" s="9" t="str">
         <f t="array" ref="H31">INDEX(GEKB!$K$15:$K$34,IFERROR(MATCH(MIN(IF(GEKB!$D$15:$D$34&gt;AVERAGE(B31,C31),GEKB!$D$15:$D$34)),GEKB!$D$15:$D$34),1))</f>
-        <v>+II</v>
+        <v>+III</v>
       </c>
       <c r="I31" s="9" t="str">
         <f t="array" ref="I31">INDEX(DA!$K$15:$K$34,IFERROR(MATCH(MIN(IF(DA!$D$15:$D$34&gt;AVERAGE(B31,C31),DA!$D$15:$D$34)),DA!$D$15:$D$34),1))</f>
@@ -4214,7 +4228,7 @@
       </c>
       <c r="H32" s="9" t="str">
         <f t="array" ref="H32">INDEX(GEKB!$K$15:$K$34,IFERROR(MATCH(MIN(IF(GEKB!$D$15:$D$34&gt;AVERAGE(B32,C32),GEKB!$D$15:$D$34)),GEKB!$D$15:$D$34),1))</f>
-        <v>+II</v>
+        <v>+III</v>
       </c>
       <c r="I32" s="9" t="str">
         <f t="array" ref="I32">INDEX(DA!$K$15:$K$34,IFERROR(MATCH(MIN(IF(DA!$D$15:$D$34&gt;AVERAGE(B32,C32),DA!$D$15:$D$34)),DA!$D$15:$D$34),1))</f>
@@ -4258,7 +4272,7 @@
       </c>
       <c r="H33" s="9" t="str">
         <f t="array" ref="H33">INDEX(GEKB!$K$15:$K$34,IFERROR(MATCH(MIN(IF(GEKB!$D$15:$D$34&gt;AVERAGE(B33,C33),GEKB!$D$15:$D$34)),GEKB!$D$15:$D$34),1))</f>
-        <v>+II</v>
+        <v>+III</v>
       </c>
       <c r="I33" s="9" t="str">
         <f t="array" ref="I33">INDEX(DA!$K$15:$K$34,IFERROR(MATCH(MIN(IF(DA!$D$15:$D$34&gt;AVERAGE(B33,C33),DA!$D$15:$D$34)),DA!$D$15:$D$34),1))</f>
@@ -4902,11 +4916,11 @@
       </c>
       <c r="D48" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>+II</v>
+        <v>+III</v>
       </c>
       <c r="E48" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>+II</v>
+        <v>+III</v>
       </c>
       <c r="F48" s="9" t="str">
         <f t="array" ref="F48">INDEX(STPH!$O$15:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$15:$D$30&gt;AVERAGE(B48,C48),STPH!$D$15:$D$30)),STPH!$D$15:$D$30),1))</f>
@@ -4918,7 +4932,7 @@
       </c>
       <c r="H48" s="9" t="str">
         <f t="array" ref="H48">INDEX(GEKB!$K$15:$K$34,IFERROR(MATCH(MIN(IF(GEKB!$D$15:$D$34&gt;AVERAGE(B48,C48),GEKB!$D$15:$D$34)),GEKB!$D$15:$D$34),1))</f>
-        <v>+II</v>
+        <v>+III</v>
       </c>
       <c r="I48" s="9" t="str">
         <f t="array" ref="I48">INDEX(DA!$K$15:$K$34,IFERROR(MATCH(MIN(IF(DA!$D$15:$D$34&gt;AVERAGE(B48,C48),DA!$D$15:$D$34)),DA!$D$15:$D$34),1))</f>
@@ -4962,7 +4976,7 @@
       </c>
       <c r="H49" s="9" t="str">
         <f t="array" ref="H49">INDEX(GEKB!$K$15:$K$34,IFERROR(MATCH(MIN(IF(GEKB!$D$15:$D$34&gt;AVERAGE(B49,C49),GEKB!$D$15:$D$34)),GEKB!$D$15:$D$34),1))</f>
-        <v>+II</v>
+        <v>+III</v>
       </c>
       <c r="I49" s="9" t="str">
         <f t="array" ref="I49">INDEX(DA!$K$15:$K$34,IFERROR(MATCH(MIN(IF(DA!$D$15:$D$34&gt;AVERAGE(B49,C49),DA!$D$15:$D$34)),DA!$D$15:$D$34),1))</f>
@@ -4990,11 +5004,11 @@
       </c>
       <c r="D50" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>+II</v>
+        <v>+III</v>
       </c>
       <c r="E50" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>+II</v>
+        <v>+III</v>
       </c>
       <c r="F50" s="9" t="str">
         <f t="array" ref="F50">INDEX(STPH!$O$15:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$15:$D$30&gt;AVERAGE(B50,C50),STPH!$D$15:$D$30)),STPH!$D$15:$D$30),1))</f>
@@ -5006,7 +5020,7 @@
       </c>
       <c r="H50" s="9" t="str">
         <f t="array" ref="H50">INDEX(GEKB!$K$15:$K$34,IFERROR(MATCH(MIN(IF(GEKB!$D$15:$D$34&gt;AVERAGE(B50,C50),GEKB!$D$15:$D$34)),GEKB!$D$15:$D$34),1))</f>
-        <v>+II</v>
+        <v>+III</v>
       </c>
       <c r="I50" s="9" t="str">
         <f t="array" ref="I50">INDEX(DA!$K$15:$K$34,IFERROR(MATCH(MIN(IF(DA!$D$15:$D$34&gt;AVERAGE(B50,C50),DA!$D$15:$D$34)),DA!$D$15:$D$34),1))</f>
@@ -5050,7 +5064,7 @@
       </c>
       <c r="H51" s="9" t="str">
         <f t="array" ref="H51">INDEX(GEKB!$K$15:$K$34,IFERROR(MATCH(MIN(IF(GEKB!$D$15:$D$34&gt;AVERAGE(B51,C51),GEKB!$D$15:$D$34)),GEKB!$D$15:$D$34),1))</f>
-        <v>+II</v>
+        <v>+III</v>
       </c>
       <c r="I51" s="9" t="str">
         <f t="array" ref="I51">INDEX(DA!$K$15:$K$34,IFERROR(MATCH(MIN(IF(DA!$D$15:$D$34&gt;AVERAGE(B51,C51),DA!$D$15:$D$34)),DA!$D$15:$D$34),1))</f>
@@ -5078,11 +5092,11 @@
       </c>
       <c r="D52" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>+II</v>
+        <v>+III</v>
       </c>
       <c r="E52" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>+II</v>
+        <v>+III</v>
       </c>
       <c r="F52" s="9" t="str">
         <f t="array" ref="F52">INDEX(STPH!$O$15:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$15:$D$30&gt;AVERAGE(B52,C52),STPH!$D$15:$D$30)),STPH!$D$15:$D$30),1))</f>
@@ -5094,7 +5108,7 @@
       </c>
       <c r="H52" s="9" t="str">
         <f t="array" ref="H52">INDEX(GEKB!$K$15:$K$34,IFERROR(MATCH(MIN(IF(GEKB!$D$15:$D$34&gt;AVERAGE(B52,C52),GEKB!$D$15:$D$34)),GEKB!$D$15:$D$34),1))</f>
-        <v>+II</v>
+        <v>+III</v>
       </c>
       <c r="I52" s="9" t="str">
         <f t="array" ref="I52">INDEX(DA!$K$15:$K$34,IFERROR(MATCH(MIN(IF(DA!$D$15:$D$34&gt;AVERAGE(B52,C52),DA!$D$15:$D$34)),DA!$D$15:$D$34),1))</f>
@@ -8033,23 +8047,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G15:H30">
-    <cfRule type="expression" dxfId="107" priority="11">
+    <cfRule type="expression" dxfId="109" priority="11">
       <formula>IF($E15="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:K30">
-    <cfRule type="expression" dxfId="106" priority="10">
+    <cfRule type="expression" dxfId="108" priority="10">
       <formula>IF($I15="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O15:O30">
-    <cfRule type="cellIs" dxfId="105" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="2" operator="equal">
       <formula>"ND"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="3" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10121,43 +10135,43 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G15:H40">
-    <cfRule type="expression" dxfId="96" priority="15">
+    <cfRule type="expression" dxfId="98" priority="15">
       <formula>IF($E15="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:K18 J27:K32 J24:J26 J22:K23 J19:J21 J35:K35 J33:J34 J37:K40 J36">
-    <cfRule type="expression" dxfId="95" priority="14">
+    <cfRule type="expression" dxfId="97" priority="14">
       <formula>IF($I15="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O15:O40">
-    <cfRule type="cellIs" dxfId="94" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="5" operator="equal">
       <formula>"0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="6" operator="equal">
       <formula>"ND"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="7" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24:K26">
-    <cfRule type="expression" dxfId="91" priority="4">
+    <cfRule type="expression" dxfId="93" priority="4">
       <formula>IF($E24="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19:K21">
-    <cfRule type="expression" dxfId="90" priority="3">
+    <cfRule type="expression" dxfId="92" priority="3">
       <formula>IF($E19="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:K34">
-    <cfRule type="expression" dxfId="89" priority="2">
+    <cfRule type="expression" dxfId="91" priority="2">
       <formula>IF($E33="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36">
-    <cfRule type="expression" dxfId="88" priority="1">
+    <cfRule type="expression" dxfId="90" priority="1">
       <formula>IF($E36="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10255,8 +10269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4BDF32-8A22-4A66-B6B5-DB37648E7DC4}">
   <dimension ref="B2:V77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10272,7 +10286,14 @@
     <col min="9" max="9" width="14.7109375" customWidth="1"/>
     <col min="10" max="10" width="12.85546875" customWidth="1"/>
     <col min="11" max="11" width="29.28515625" customWidth="1"/>
-    <col min="16" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11019,20 +11040,20 @@
       <c r="F23" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="26">
-        <v>9.9999999999999995E-7</v>
-      </c>
+      <c r="G23" s="26"/>
       <c r="H23" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23" s="26"/>
+        <v>9</v>
+      </c>
+      <c r="I23" s="26">
+        <v>0</v>
+      </c>
       <c r="J23" s="10">
         <f t="shared" si="14"/>
-        <v>9.9999999999999995E-7</v>
+        <v>0</v>
       </c>
       <c r="K23" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+II</v>
+        <v>+III</v>
       </c>
       <c r="M23" s="31">
         <f t="shared" si="7"/>
@@ -11052,15 +11073,15 @@
       </c>
       <c r="Q23" s="9">
         <f t="array" ref="Q23">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J23,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333333E-6</v>
+        <v>0</v>
       </c>
       <c r="R23" s="9">
         <f>IFERROR(MATCH($Q23,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S23" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R23)</f>
-        <v>+II</v>
+        <v>+III</v>
       </c>
       <c r="T23" s="9" t="b">
         <f t="shared" si="6"/>
@@ -11307,20 +11328,20 @@
       <c r="F27" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="26">
-        <v>9.9999999999999995E-7</v>
-      </c>
+      <c r="G27" s="26"/>
       <c r="H27" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I27" s="26"/>
+        <v>9</v>
+      </c>
+      <c r="I27" s="26">
+        <v>0</v>
+      </c>
       <c r="J27" s="10">
         <f t="shared" si="14"/>
-        <v>9.9999999999999995E-7</v>
+        <v>0</v>
       </c>
       <c r="K27" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+II</v>
+        <v>+III</v>
       </c>
       <c r="M27" s="31">
         <f t="shared" si="7"/>
@@ -11340,15 +11361,15 @@
       </c>
       <c r="Q27" s="9">
         <f t="array" ref="Q27">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J27,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333333E-6</v>
+        <v>0</v>
       </c>
       <c r="R27" s="9">
         <f>IFERROR(MATCH($Q27,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S27" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R27)</f>
-        <v>+II</v>
+        <v>+III</v>
       </c>
       <c r="T27" s="9" t="b">
         <f t="shared" si="6"/>
@@ -12627,24 +12648,34 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G15:G75">
-    <cfRule type="expression" dxfId="81" priority="11">
+    <cfRule type="expression" dxfId="83" priority="17">
       <formula>IF($E15="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15:I75">
-    <cfRule type="expression" dxfId="80" priority="10">
+  <conditionalFormatting sqref="I15:I22 I24:I26 I28:I75">
+    <cfRule type="expression" dxfId="82" priority="16">
       <formula>IF($H15="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15:K75">
-    <cfRule type="cellIs" dxfId="79" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="7" operator="equal">
       <formula>"0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="8" operator="equal">
       <formula>"ND"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="9" operator="equal">
       <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
+    <cfRule type="expression" dxfId="78" priority="2">
+      <formula>IF($E23="Nee",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27">
+    <cfRule type="expression" dxfId="77" priority="1">
+      <formula>IF($E27="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12653,7 +12684,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="endsWith" priority="30" operator="endsWith" id="{66C1998D-15BB-4F32-86A4-1C542E19908B}">
+          <x14:cfRule type="endsWith" priority="36" operator="endsWith" id="{66C1998D-15BB-4F32-86A4-1C542E19908B}">
             <xm:f>RIGHT(K15,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$20</xm:f>
             <x14:dxf>
@@ -12664,7 +12695,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="endsWith" priority="31" operator="endsWith" id="{6418FE22-99A5-4340-8D15-7412BDDECB23}">
+          <x14:cfRule type="endsWith" priority="37" operator="endsWith" id="{6418FE22-99A5-4340-8D15-7412BDDECB23}">
             <xm:f>RIGHT(K15,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$19</xm:f>
             <x14:dxf>
@@ -12675,7 +12706,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="endsWith" priority="32" operator="endsWith" id="{2E1F4C73-7BF4-44FB-95BB-E1E18C41151A}">
+          <x14:cfRule type="endsWith" priority="38" operator="endsWith" id="{2E1F4C73-7BF4-44FB-95BB-E1E18C41151A}">
             <xm:f>RIGHT(K15,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$18</xm:f>
             <x14:dxf>
@@ -12686,7 +12717,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="endsWith" priority="33" operator="endsWith" id="{F6D5C182-9535-4ABE-A15A-43A844BD5583}">
+          <x14:cfRule type="endsWith" priority="39" operator="endsWith" id="{F6D5C182-9535-4ABE-A15A-43A844BD5583}">
             <xm:f>RIGHT(K15,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$16</xm:f>
             <x14:dxf>
@@ -12697,7 +12728,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="34" operator="containsText" id="{A8878CEC-0269-4E5C-8639-1D28F9774243}">
+          <x14:cfRule type="containsText" priority="40" operator="containsText" id="{A8878CEC-0269-4E5C-8639-1D28F9774243}">
             <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,K15)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$13</xm:f>
             <x14:dxf>
@@ -12708,7 +12739,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="35" operator="containsText" id="{EBB6C8A2-6184-4577-852F-E10D11AB01B0}">
+          <x14:cfRule type="containsText" priority="41" operator="containsText" id="{EBB6C8A2-6184-4577-852F-E10D11AB01B0}">
             <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,K15)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$14</xm:f>
             <x14:dxf>
@@ -12724,7 +12755,7 @@
       </x14:conditionalFormattings>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C942F4B2-BBED-4C36-B535-6E749A241475}">
           <x14:formula1>
             <xm:f>Informatiepagina!$B$15:$B$17</xm:f>
@@ -16759,7 +16790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A4475A-3782-4C92-8ED6-63AC240A6132}">
   <dimension ref="B2:V113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>

--- a/test/Assembly.Kernel.Acceptance.Test/test-data/definitions/Benchmarktest_traject INNW 22-1.xlsx
+++ b/test/Assembly.Kernel.Acceptance.Test/test-data/definitions/Benchmarktest_traject INNW 22-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Checkouts\AssemblageKernel\test\Assembly.Kernel.Acceptance.Test\test-data\definitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B764692D-3813-4557-B67F-AC1D891A8C61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC55EC12-3D48-4B5E-9911-ADF676288DA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="653" firstSheet="1" activeTab="4" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" firstSheet="1" activeTab="9" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatiepagina" sheetId="1" r:id="rId1"/>
@@ -2346,8 +2346,8 @@
   </sheetPr>
   <dimension ref="B2:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2555,7 +2555,7 @@
       </c>
       <c r="E9" s="49"/>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="0"/>
@@ -2575,19 +2575,19 @@
       </c>
       <c r="L9" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.3478260869367347E-6</v>
       </c>
       <c r="M9" s="1">
         <f t="shared" si="5"/>
-        <v>0.99999565217391306</v>
+        <v>1</v>
       </c>
       <c r="N9" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.3478260869367347E-6</v>
       </c>
       <c r="O9" s="1">
         <f t="shared" si="6"/>
-        <v>0.99999565217391306</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
@@ -2802,11 +2802,11 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1">
         <f>MAX(L7:L13)</f>
-        <v>0</v>
+        <v>4.3478260869367347E-6</v>
       </c>
       <c r="N15" s="1">
         <f>MAX(N7:N13)</f>
-        <v>0</v>
+        <v>4.3478260869367347E-6</v>
       </c>
     </row>
   </sheetData>
@@ -10269,7 +10269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4BDF32-8A22-4A66-B6B5-DB37648E7DC4}">
   <dimension ref="B2:V77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
@@ -21563,7 +21563,7 @@
   <dimension ref="B2:V89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/test/Assembly.Kernel.Acceptance.Test/test-data/definitions/Benchmarktest_traject INNW 22-1.xlsx
+++ b/test/Assembly.Kernel.Acceptance.Test/test-data/definitions/Benchmarktest_traject INNW 22-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Checkouts\AssemblageKernel\test\Assembly.Kernel.Acceptance.Test\test-data\definitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04466EE1-1E31-4B76-A4FD-14FEBD488AB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13E34FD-1B2B-41A0-AADA-88E503892141}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" firstSheet="1" activeTab="9" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" firstSheet="1" activeTab="4" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatiepagina" sheetId="1" r:id="rId1"/>
@@ -212,9 +212,6 @@
   </si>
   <si>
     <t>Macrostabiliteit</t>
-  </si>
-  <si>
-    <t>Erosie van het buitentalud</t>
   </si>
   <si>
     <t>Duinafslag</t>
@@ -611,6 +608,9 @@
   </si>
   <si>
     <t>Gecorreleerd</t>
+  </si>
+  <si>
+    <t>Erosie van het binnentalud</t>
   </si>
 </sst>
 </file>
@@ -2112,19 +2112,19 @@
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="52" t="s">
+      <c r="E2" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="53" t="s">
         <v>72</v>
-      </c>
-      <c r="E2" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" s="53" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -2132,7 +2132,7 @@
         <v>38</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>9</v>
@@ -2149,7 +2149,7 @@
         <v>54</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>9</v>
@@ -2163,10 +2163,10 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>10</v>
@@ -2175,21 +2175,21 @@
         <v>9</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>10</v>
@@ -2197,16 +2197,16 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>10</v>
@@ -2214,10 +2214,10 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>10</v>
@@ -2231,16 +2231,16 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>10</v>
@@ -2248,16 +2248,16 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>10</v>
@@ -2265,10 +2265,10 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>10</v>
@@ -2282,11 +2282,11 @@
     </row>
     <row r="12" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>88</v>
-      </c>
       <c r="D12" s="14" t="s">
         <v>10</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2345,7 +2345,7 @@
   </sheetPr>
   <dimension ref="B2:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
@@ -2365,7 +2365,7 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2" s="1">
         <f>IFERROR(1-PRODUCT(M7:M13)*(1-L15),"GR")</f>
@@ -2386,7 +2386,7 @@
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" s="1">
         <f>1-PRODUCT(O7:O13)*(1-N15)</f>
@@ -2419,39 +2419,39 @@
         <v>30</v>
       </c>
       <c r="E6" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>186</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="49" t="s">
-        <v>187</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="J6" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="29">
         <f>STPH!C7</f>
@@ -2501,7 +2501,7 @@
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="31">
         <f>STBI!C7</f>
@@ -2551,7 +2551,7 @@
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="31">
         <f>GEKB!C7</f>
@@ -2601,7 +2601,7 @@
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="31">
         <f>DA!C7</f>
@@ -2651,7 +2651,7 @@
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="31">
         <f>STKWp!C7</f>
@@ -2701,7 +2701,7 @@
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="31">
         <f>HTKW!C7</f>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" s="31">
         <f>BSKW!C7</f>
@@ -2810,7 +2810,7 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I15" s="1"/>
       <c r="K15" s="1"/>
@@ -2914,31 +2914,31 @@
       <c r="B2" s="9"/>
       <c r="C2" s="14"/>
       <c r="D2" s="67" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E2" s="67" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F2" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="H2" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="52" t="s">
+      <c r="I2" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="52" t="s">
+      <c r="J2" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="J2" s="52" t="s">
+      <c r="K2" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="L2" s="53" t="s">
         <v>61</v>
-      </c>
-      <c r="K2" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="L2" s="53" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
@@ -6235,7 +6235,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
@@ -6280,7 +6280,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B5" s="9">
         <v>17.5</v>
@@ -6337,12 +6337,12 @@
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E12" s="53" t="s">
         <v>28</v>
@@ -6500,7 +6500,7 @@
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B4" s="39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>9</v>
@@ -6508,15 +6508,15 @@
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>173</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>10</v>
@@ -6558,7 +6558,7 @@
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C10" s="26">
         <f>MAX(Z16:Z31)</f>
@@ -6578,7 +6578,7 @@
     </row>
     <row r="12" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C12" s="27">
         <f>1-PRODUCT(R16:R31)</f>
@@ -6599,7 +6599,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="71" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E15" s="72" t="s">
         <v>3</v>
@@ -6658,15 +6658,15 @@
         <v>52</v>
       </c>
       <c r="Y15" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z15" s="38" t="s">
         <v>177</v>
-      </c>
-      <c r="Z15" s="38" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C16" s="4">
         <v>0</v>
@@ -6755,7 +6755,7 @@
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C17" s="9">
         <v>1</v>
@@ -6844,7 +6844,7 @@
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C18" s="9">
         <v>1.7000000000000011</v>
@@ -6933,7 +6933,7 @@
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C19" s="9">
         <v>2.5</v>
@@ -7018,7 +7018,7 @@
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C20" s="9">
         <v>4.2000000000000011</v>
@@ -7107,7 +7107,7 @@
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C21" s="9">
         <v>4.5500000000000007</v>
@@ -7196,7 +7196,7 @@
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C22" s="9">
         <v>6.2000000000000011</v>
@@ -7281,7 +7281,7 @@
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C23" s="9">
         <v>7.1</v>
@@ -7366,7 +7366,7 @@
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C24" s="9">
         <v>7.35</v>
@@ -7455,7 +7455,7 @@
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C25" s="9">
         <v>7.7000000000000011</v>
@@ -7544,7 +7544,7 @@
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C26" s="9">
         <v>9.4</v>
@@ -7633,7 +7633,7 @@
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C27" s="9">
         <v>10.1</v>
@@ -7722,7 +7722,7 @@
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C28" s="9">
         <v>12.200000000000001</v>
@@ -7807,7 +7807,7 @@
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C29" s="9">
         <v>14.4</v>
@@ -7892,7 +7892,7 @@
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C30" s="9">
         <v>16</v>
@@ -7977,7 +7977,7 @@
     </row>
     <row r="31" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C31" s="14">
         <v>16.399999999999999</v>
@@ -8225,7 +8225,7 @@
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B4" s="39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>9</v>
@@ -8233,15 +8233,15 @@
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>173</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>10</v>
@@ -8276,7 +8276,7 @@
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C10" s="26">
         <f>MAX(Z16:Z41)</f>
@@ -8294,7 +8294,7 @@
     </row>
     <row r="12" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C12" s="27">
         <f>1-PRODUCT(R16:R41)</f>
@@ -8314,7 +8314,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>3</v>
@@ -8373,15 +8373,15 @@
         <v>52</v>
       </c>
       <c r="Y15" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z15" s="38" t="s">
         <v>177</v>
-      </c>
-      <c r="Z15" s="38" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C16" s="4">
         <v>0</v>
@@ -8465,7 +8465,7 @@
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C17" s="9">
         <v>0.59999999999999964</v>
@@ -8549,7 +8549,7 @@
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C18" s="9">
         <v>1</v>
@@ -8633,7 +8633,7 @@
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C19" s="9">
         <v>1.7000000000000011</v>
@@ -8717,7 +8717,7 @@
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" s="9">
         <v>2.5</v>
@@ -8801,7 +8801,7 @@
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C21" s="9">
         <v>3.0999999999999996</v>
@@ -8885,7 +8885,7 @@
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C22" s="9">
         <v>4.2000000000000011</v>
@@ -8969,7 +8969,7 @@
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C23" s="9">
         <v>5.6</v>
@@ -9053,7 +9053,7 @@
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C24" s="9">
         <v>6.2000000000000011</v>
@@ -9137,7 +9137,7 @@
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C25" s="9">
         <v>7.1</v>
@@ -9221,7 +9221,7 @@
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C26" s="9">
         <v>7.35</v>
@@ -9305,7 +9305,7 @@
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C27" s="9">
         <v>7.7000000000000011</v>
@@ -9389,7 +9389,7 @@
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C28" s="9">
         <v>9.4</v>
@@ -9473,7 +9473,7 @@
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C29" s="9">
         <v>10.6</v>
@@ -9557,7 +9557,7 @@
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C30" s="9">
         <v>12.500000000000002</v>
@@ -9641,7 +9641,7 @@
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C31" s="9">
         <v>14.200000000000001</v>
@@ -9725,7 +9725,7 @@
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C32" s="9">
         <v>14.799999999999999</v>
@@ -9809,7 +9809,7 @@
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C33" s="9">
         <v>16</v>
@@ -9893,7 +9893,7 @@
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C34" s="9">
         <v>17.200000000000003</v>
@@ -10299,8 +10299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4BDF32-8A22-4A66-B6B5-DB37648E7DC4}">
   <dimension ref="B2:V78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10331,7 +10331,7 @@
         <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
@@ -10344,7 +10344,7 @@
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>10</v>
@@ -10352,15 +10352,15 @@
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>9</v>
@@ -10395,7 +10395,7 @@
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C10" s="26">
         <f>MAX(V16:V76)</f>
@@ -10413,7 +10413,7 @@
     </row>
     <row r="12" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C12" s="27">
         <f>1-PRODUCT(N16:N76)</f>
@@ -10464,10 +10464,10 @@
         <v>32</v>
       </c>
       <c r="O15" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="P15" s="36" t="s">
         <v>69</v>
-      </c>
-      <c r="P15" s="36" t="s">
-        <v>70</v>
       </c>
       <c r="Q15" s="37" t="s">
         <v>50</v>
@@ -10480,15 +10480,15 @@
         <v>52</v>
       </c>
       <c r="U15" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="V15" s="38" t="s">
         <v>177</v>
-      </c>
-      <c r="V15" s="38" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C16" s="4">
         <v>0</v>
@@ -10560,7 +10560,7 @@
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C17" s="9">
         <v>1.7000000000000011</v>
@@ -10632,7 +10632,7 @@
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C18" s="9">
         <v>3.0999999999999996</v>
@@ -10704,7 +10704,7 @@
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C19" s="9">
         <v>4.2000000000000011</v>
@@ -10776,7 +10776,7 @@
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C20" s="9">
         <v>6.2000000000000011</v>
@@ -10848,7 +10848,7 @@
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C21" s="9">
         <v>7.1</v>
@@ -10920,7 +10920,7 @@
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C22" s="9">
         <v>7.7000000000000011</v>
@@ -10992,7 +10992,7 @@
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C23" s="9">
         <v>9.1</v>
@@ -11064,7 +11064,7 @@
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C24" s="9">
         <v>9.4</v>
@@ -11136,7 +11136,7 @@
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C25" s="9">
         <v>10.1</v>
@@ -11208,7 +11208,7 @@
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C26" s="9">
         <v>11.799999999999999</v>
@@ -11280,7 +11280,7 @@
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C27" s="9">
         <v>12.500000000000002</v>
@@ -11352,7 +11352,7 @@
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C28" s="9">
         <v>13.200000000000001</v>
@@ -11424,7 +11424,7 @@
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C29" s="9">
         <v>14.200000000000001</v>
@@ -11496,7 +11496,7 @@
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C30" s="9">
         <v>14.799999999999999</v>
@@ -11568,7 +11568,7 @@
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C31" s="9">
         <v>16</v>
@@ -11640,7 +11640,7 @@
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C32" s="9">
         <v>16.399999999999999</v>
@@ -12836,7 +12836,7 @@
         <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
@@ -12849,7 +12849,7 @@
     </row>
     <row r="4" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>10</v>
@@ -12857,15 +12857,15 @@
     </row>
     <row r="5" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>10</v>
@@ -12900,7 +12900,7 @@
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C10" s="26">
         <f>MAX(V16)</f>
@@ -12918,7 +12918,7 @@
     </row>
     <row r="12" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C12" s="27">
         <f>1-PRODUCT(N16)</f>
@@ -12985,10 +12985,10 @@
         <v>52</v>
       </c>
       <c r="U15" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="V15" s="38" t="s">
         <v>177</v>
-      </c>
-      <c r="V15" s="38" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="16" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13213,7 +13213,7 @@
         <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
@@ -13226,7 +13226,7 @@
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>10</v>
@@ -13234,15 +13234,15 @@
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>173</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>10</v>
@@ -13277,7 +13277,7 @@
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C10" s="26">
         <f>MAX(V16:V65)</f>
@@ -13295,7 +13295,7 @@
     </row>
     <row r="12" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C12" s="27">
         <f>1-PRODUCT(N16:N65)</f>
@@ -13346,10 +13346,10 @@
         <v>32</v>
       </c>
       <c r="O15" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="P15" s="36" t="s">
         <v>69</v>
-      </c>
-      <c r="P15" s="36" t="s">
-        <v>70</v>
       </c>
       <c r="Q15" s="37" t="s">
         <v>50</v>
@@ -13362,10 +13362,10 @@
         <v>52</v>
       </c>
       <c r="U15" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="V15" s="38" t="s">
         <v>177</v>
-      </c>
-      <c r="V15" s="38" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
@@ -13438,7 +13438,7 @@
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C17" s="9">
         <v>1.4</v>
@@ -13578,7 +13578,7 @@
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C19" s="9">
         <v>1.7</v>
@@ -13718,7 +13718,7 @@
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C21" s="9">
         <v>2.5</v>
@@ -13858,7 +13858,7 @@
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C23" s="9">
         <v>2.8</v>
@@ -13998,7 +13998,7 @@
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C25" s="9">
         <v>5.9</v>
@@ -14138,7 +14138,7 @@
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C27" s="9">
         <v>6.7</v>
@@ -14278,7 +14278,7 @@
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C29" s="9">
         <v>7.1</v>
@@ -14418,7 +14418,7 @@
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C31" s="9">
         <v>7.7</v>
@@ -14558,7 +14558,7 @@
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C33" s="9">
         <v>8.25</v>
@@ -14698,7 +14698,7 @@
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C35" s="9">
         <v>10</v>
@@ -14838,7 +14838,7 @@
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C37" s="9">
         <v>10.199999999999999</v>
@@ -14978,7 +14978,7 @@
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C39" s="9">
         <v>10.55</v>
@@ -15118,7 +15118,7 @@
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C41" s="9">
         <v>11</v>
@@ -15258,7 +15258,7 @@
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C43" s="9">
         <v>11.8</v>
@@ -15398,7 +15398,7 @@
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C45" s="9">
         <v>13</v>
@@ -15538,7 +15538,7 @@
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C47" s="9">
         <v>13.4</v>
@@ -15678,7 +15678,7 @@
     </row>
     <row r="49" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C49" s="9">
         <v>13.9</v>
@@ -15818,7 +15818,7 @@
     </row>
     <row r="51" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C51" s="9">
         <v>14.2</v>
@@ -15958,7 +15958,7 @@
     </row>
     <row r="53" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C53" s="9">
         <v>15</v>
@@ -16098,7 +16098,7 @@
     </row>
     <row r="55" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C55" s="9">
         <v>15.7</v>
@@ -16238,7 +16238,7 @@
     </row>
     <row r="57" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C57" s="9">
         <v>16.100000000000001</v>
@@ -16378,7 +16378,7 @@
     </row>
     <row r="59" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C59" s="9">
         <v>16.7</v>
@@ -16518,7 +16518,7 @@
     </row>
     <row r="61" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C61" s="9">
         <v>17.3</v>
@@ -16869,7 +16869,7 @@
         <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
@@ -16882,7 +16882,7 @@
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>10</v>
@@ -16890,15 +16890,15 @@
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>10</v>
@@ -16933,7 +16933,7 @@
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C10" s="26">
         <f>MAX(V16:V88)</f>
@@ -16951,7 +16951,7 @@
     </row>
     <row r="12" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C12" s="27">
         <f>1-PRODUCT(N16:N88)</f>
@@ -17002,10 +17002,10 @@
         <v>32</v>
       </c>
       <c r="O15" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="P15" s="36" t="s">
         <v>69</v>
-      </c>
-      <c r="P15" s="36" t="s">
-        <v>70</v>
       </c>
       <c r="Q15" s="37" t="s">
         <v>50</v>
@@ -17018,10 +17018,10 @@
         <v>52</v>
       </c>
       <c r="U15" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="V15" s="38" t="s">
         <v>177</v>
-      </c>
-      <c r="V15" s="38" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
@@ -17094,7 +17094,7 @@
     </row>
     <row r="17" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C17" s="9">
         <v>1.4</v>
@@ -17234,7 +17234,7 @@
     </row>
     <row r="19" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C19" s="9">
         <v>1.7</v>
@@ -17374,7 +17374,7 @@
     </row>
     <row r="21" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C21" s="9">
         <v>2.5</v>
@@ -17514,7 +17514,7 @@
     </row>
     <row r="23" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C23" s="9">
         <v>2.8</v>
@@ -17654,7 +17654,7 @@
     </row>
     <row r="25" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C25" s="9">
         <v>5.9</v>
@@ -17794,7 +17794,7 @@
     </row>
     <row r="27" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C27" s="9">
         <v>6.7</v>
@@ -17934,7 +17934,7 @@
     </row>
     <row r="29" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C29" s="9">
         <v>7.1</v>
@@ -18074,7 +18074,7 @@
     </row>
     <row r="31" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C31" s="9">
         <v>7.7</v>
@@ -18214,7 +18214,7 @@
     </row>
     <row r="33" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C33" s="9">
         <v>8.25</v>
@@ -18354,7 +18354,7 @@
     </row>
     <row r="35" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C35" s="9">
         <v>10</v>
@@ -18494,7 +18494,7 @@
     </row>
     <row r="37" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C37" s="9">
         <v>10.199999999999999</v>
@@ -18634,7 +18634,7 @@
     </row>
     <row r="39" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C39" s="9">
         <v>10.55</v>
@@ -18774,7 +18774,7 @@
     </row>
     <row r="41" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C41" s="9">
         <v>11</v>
@@ -18914,7 +18914,7 @@
     </row>
     <row r="43" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C43" s="9">
         <v>11.8</v>
@@ -19054,7 +19054,7 @@
     </row>
     <row r="45" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C45" s="9">
         <v>13</v>
@@ -19194,7 +19194,7 @@
     </row>
     <row r="47" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C47" s="9">
         <v>13.4</v>
@@ -19334,7 +19334,7 @@
     </row>
     <row r="49" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C49" s="9">
         <v>13.9</v>
@@ -19474,7 +19474,7 @@
     </row>
     <row r="51" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C51" s="9">
         <v>14.2</v>
@@ -19614,7 +19614,7 @@
     </row>
     <row r="53" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C53" s="9">
         <v>15</v>
@@ -19754,7 +19754,7 @@
     </row>
     <row r="55" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C55" s="9">
         <v>15.7</v>
@@ -19894,7 +19894,7 @@
     </row>
     <row r="57" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C57" s="9">
         <v>16.100000000000001</v>
@@ -20034,7 +20034,7 @@
     </row>
     <row r="59" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C59" s="9">
         <v>16.7</v>
@@ -20174,7 +20174,7 @@
     </row>
     <row r="61" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C61" s="9">
         <v>17.3</v>
@@ -20892,44 +20892,44 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G63:G88">
-    <cfRule type="expression" dxfId="26" priority="16">
+    <cfRule type="expression" dxfId="48" priority="16">
       <formula>IF($E63="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I63:I88">
-    <cfRule type="expression" dxfId="25" priority="15">
+    <cfRule type="expression" dxfId="47" priority="15">
       <formula>IF($H63="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K63:K88">
-    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="12" operator="equal">
       <formula>"0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="13" operator="equal">
       <formula>"ND"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="14" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:G62">
-    <cfRule type="expression" dxfId="21" priority="5">
+    <cfRule type="expression" dxfId="43" priority="5">
       <formula>IF($E16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:I62">
-    <cfRule type="expression" dxfId="20" priority="4">
+    <cfRule type="expression" dxfId="42" priority="4">
       <formula>IF($H16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:K62">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
       <formula>"ND"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21121,7 +21121,7 @@
         <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
@@ -21134,7 +21134,7 @@
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>10</v>
@@ -21142,15 +21142,15 @@
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>10</v>
@@ -21185,7 +21185,7 @@
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C10" s="26">
         <f>MAX(V16:V112)</f>
@@ -21203,7 +21203,7 @@
     </row>
     <row r="12" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C12" s="27">
         <f>1-PRODUCT(N16:N112)</f>
@@ -21254,10 +21254,10 @@
         <v>32</v>
       </c>
       <c r="O15" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="P15" s="36" t="s">
         <v>69</v>
-      </c>
-      <c r="P15" s="36" t="s">
-        <v>70</v>
       </c>
       <c r="Q15" s="37" t="s">
         <v>50</v>
@@ -21270,10 +21270,10 @@
         <v>52</v>
       </c>
       <c r="U15" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="V15" s="38" t="s">
         <v>177</v>
-      </c>
-      <c r="V15" s="38" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
@@ -21346,7 +21346,7 @@
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C17" s="9">
         <v>1.4</v>
@@ -21486,7 +21486,7 @@
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C19" s="9">
         <v>1.7</v>
@@ -21626,7 +21626,7 @@
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C21" s="9">
         <v>2.5</v>
@@ -21766,7 +21766,7 @@
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C23" s="9">
         <v>2.8</v>
@@ -21906,7 +21906,7 @@
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C25" s="9">
         <v>5.9</v>
@@ -22046,7 +22046,7 @@
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C27" s="9">
         <v>6.7</v>
@@ -22186,7 +22186,7 @@
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C29" s="9">
         <v>7.1</v>
@@ -22326,7 +22326,7 @@
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C31" s="9">
         <v>7.7</v>
@@ -22466,7 +22466,7 @@
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C33" s="9">
         <v>8.25</v>
@@ -22606,7 +22606,7 @@
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C35" s="9">
         <v>10</v>
@@ -22746,7 +22746,7 @@
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C37" s="9">
         <v>10.199999999999999</v>
@@ -22886,7 +22886,7 @@
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C39" s="9">
         <v>10.55</v>
@@ -23026,7 +23026,7 @@
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C41" s="9">
         <v>11</v>
@@ -23166,7 +23166,7 @@
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C43" s="9">
         <v>11.8</v>
@@ -23306,7 +23306,7 @@
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C45" s="9">
         <v>13</v>
@@ -23446,7 +23446,7 @@
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C47" s="9">
         <v>13.4</v>
@@ -23586,7 +23586,7 @@
     </row>
     <row r="49" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C49" s="9">
         <v>13.9</v>
@@ -23726,7 +23726,7 @@
     </row>
     <row r="51" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C51" s="9">
         <v>14.2</v>
@@ -23866,7 +23866,7 @@
     </row>
     <row r="53" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C53" s="9">
         <v>15</v>
@@ -24006,7 +24006,7 @@
     </row>
     <row r="55" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C55" s="9">
         <v>15.7</v>
@@ -24146,7 +24146,7 @@
     </row>
     <row r="57" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C57" s="9">
         <v>16.100000000000001</v>
@@ -24286,7 +24286,7 @@
     </row>
     <row r="59" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C59" s="9">
         <v>16.7</v>
@@ -24426,7 +24426,7 @@
     </row>
     <row r="61" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C61" s="9">
         <v>17.3</v>
@@ -25672,44 +25672,44 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G63:G112">
-    <cfRule type="expression" dxfId="48" priority="16">
+    <cfRule type="expression" dxfId="26" priority="16">
       <formula>IF($E63="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I63:I112">
-    <cfRule type="expression" dxfId="47" priority="15">
+    <cfRule type="expression" dxfId="25" priority="15">
       <formula>IF($H63="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K63:K112">
-    <cfRule type="cellIs" dxfId="46" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
       <formula>"0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
       <formula>"ND"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:G62">
-    <cfRule type="expression" dxfId="43" priority="5">
+    <cfRule type="expression" dxfId="21" priority="5">
       <formula>IF($E16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:I62">
-    <cfRule type="expression" dxfId="42" priority="4">
+    <cfRule type="expression" dxfId="20" priority="4">
       <formula>IF($H16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:K62">
-    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>"ND"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
